--- a/doc/40_外部設計/02_機能一覧_CK5_第1版.xlsx
+++ b/doc/40_外部設計/02_機能一覧_CK5_第1版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\40_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C61CEBB1-E1F3-4423-AEF4-07AD49804104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745044D3-DD15-4EC4-9FDF-E98568820113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -940,6 +940,10 @@
   </si>
   <si>
     <t>ReviewServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IconServlet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1377,7 +1381,7 @@
   <dimension ref="B2:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1743,7 +1747,7 @@
         <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>18</v>
@@ -1767,7 +1771,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>17</v>
